--- a/학습자료/단답형/객관식_국어_기출의지혜_복합어.xlsx
+++ b/학습자료/단답형/객관식_국어_기출의지혜_복합어.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>눈물
-1. 합성어
-2. 파생어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어, 통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 합성어, 통사적 합성어</t>
+          <t>2, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>작은집
-1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 합성어, 통사적 합성어</t>
+          <t>3, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>가로지르다
-1. 파생어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, 합성어, 통사적 합성어</t>
+          <t>2, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>값나가다
-1. 합성어, 통사적 합성어
-2. 파생어
+1. 합성어, 비통사적 합성어
+2. 합성어, 통사적 합성어
 3. 합성어</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 합성어, 통사적 합성어</t>
+          <t>2, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>낯설다
-1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
-3. 파생어</t>
+1. 합성어, 통사적 합성어
+2. 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2, 합성어, 통사적 합성어</t>
+          <t>1, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>본받다
-1. 파생어
-2. 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어, 통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3, 합성어, 통사적 합성어</t>
+          <t>2, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -555,13 +555,13 @@
         <is>
           <t>이리저리
 1. 파생어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+2. 합성어, 통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3, 합성어, 통사적 합성어</t>
+          <t>2, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>돌아가다
-1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
+1. 합성어, 통사적 합성어
+2. 합성어
 3. 파생어</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2, 합성어, 통사적 합성어</t>
+          <t>1, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
         <is>
           <t>벗어나다
 1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
+2. 합성어
 3. 파생어</t>
         </is>
       </c>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>검버섯
-1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
+1. 합성어, 통사적 합성어
+2. 합성어, 비통사적 합성어
 3. 합성어</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 합성어, 비통사적 합성어</t>
+          <t>2, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
         <is>
           <t>오르내리다
 1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
+2. 파생어
 3. 합성어</t>
         </is>
       </c>
@@ -644,9 +644,9 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>먹거리
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어, 비통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>우짖다
-1. 합성어
-2. 합성어, 통사적 합성어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3, 합성어, 비통사적 합성어</t>
+          <t>1, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>뛰놀다
-1. 합성어, 비통사적 합성어
-2. 파생어
-3. 합성어, 통사적 합성어</t>
+1. 합성어
+2. 합성어, 통사적 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, 합성어, 비통사적 합성어</t>
+          <t>3, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -690,8 +690,8 @@
         <is>
           <t>볼록거울
 1. 합성어, 비통사적 합성어
-2. 파생어
-3. 합성어</t>
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -705,13 +705,13 @@
         <is>
           <t>뾰족구두
 1. 파생어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+2. 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, 합성어, 비통사적 합성어</t>
+          <t>3, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
           <t>산들바람
 1. 파생어
 2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+3. 합성어</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>피땀
-1. 파생어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 합성어, 비통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 합성어, 통사적 합성어</t>
+          <t>1, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>열쇠
-1. 합성어
-2. 합성어, 통사적 합성어
+1. 합성어, 통사적 합성어
+2. 합성어, 비통사적 합성어
 3. 파생어</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 합성어, 통사적 합성어</t>
+          <t>1, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>길짐승
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 합성어</t>
+1. 합성어
+2. 합성어, 비통사적 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 합성어, 통사적 합성어</t>
+          <t>3, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>날짐승
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어, 통사적 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 합성어, 통사적 합성어</t>
+          <t>2, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>첫사랑
-1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
-3. 합성어</t>
+1. 합성어, 통사적 합성어
+2. 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2, 합성어, 통사적 합성어</t>
+          <t>1, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>눈발
-1. 합성어, 통사적 합성어
-2. 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어, 비통사적 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1, 합성어, 통사적 합성어</t>
+          <t>3, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -825,13 +825,13 @@
         <is>
           <t>서릿발
 1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
-3. 합성어</t>
+2. 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 합성어, 통사적 합성어</t>
+          <t>3, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <is>
           <t>생겨나다
 1. 합성어, 통사적 합성어
-2. 합성어
+2. 합성어, 비통사적 합성어
 3. 파생어</t>
         </is>
       </c>
@@ -856,7 +856,7 @@
           <t>먹을거리
 1. 합성어, 통사적 합성어
 2. 합성어, 비통사적 합성어
-3. 합성어</t>
+3. 파생어</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -869,7 +869,7 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>우리나라
-1. 합성어, 비통사적 합성어
+1. 파생어
 2. 합성어
 3. 합성어, 통사적 합성어</t>
         </is>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>우리말
-1. 합성어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 파생어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3, 합성어, 통사적 합성어</t>
+          <t>1, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -900,13 +900,13 @@
         <is>
           <t>우리글
 1. 합성어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3, 합성어, 통사적 합성어</t>
+          <t>2, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>날고기
-1. 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 합성어, 비통사적 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>잡아먹히다
-1. 파생어
-2. 합성어, 통사적 합성어
-3. 합성어</t>
+1. 합성어
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -959,9 +959,9 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>되돌리다
-1. 합성어
-2. 파생어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 파생어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>건강하다
-1. 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 합성어, 비통사적 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>공부하다
-1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어, 비통사적 합성어</t>
+1. 파생어
+2. 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -1004,9 +1004,9 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>유지하다
-1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1019,14 +1019,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>풋사랑
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어, 비통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>단호박
-1. 합성어, 비통사적 합성어
+1. 합성어
 2. 합성어, 통사적 합성어
 3. 파생어</t>
         </is>
@@ -1049,9 +1049,9 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>단팥죽
-1. 합성어, 비통사적 합성어
-2. 파생어
-3. 합성어</t>
+1. 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1064,14 +1064,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>바가지
-1. 파생어
-2. 합성어, 비통사적 합성어
+1. 합성어, 비통사적 합성어
+2. 파생어
 3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -1079,14 +1079,14 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>끗발
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어, 통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>화장발
-1. 합성어
+1. 합성어, 통사적 합성어
 2. 파생어
 3. 합성어, 비통사적 합성어</t>
         </is>
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>늦더위
-1. 파생어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>늦가을
-1. 합성어, 비통사적 합성어
-2. 파생어
+1. 파생어
+2. 합성어, 비통사적 합성어
 3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>값어치
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>감발
-1. 파생어
-2. 합성어, 비통사적 합성어
-3. 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2, 합성어, 비통사적 합성어</t>
+          <t>1, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>꺾쇠
-1. 파생어
-2. 합성어, 비통사적 합성어
+1. 합성어, 비통사적 합성어
+2. 합성어, 통사적 합성어
 3. 합성어</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2, 합성어, 비통사적 합성어</t>
+          <t>1, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>얽매다
-1. 합성어
+1. 파생어
 2. 합성어, 통사적 합성어
 3. 합성어, 비통사적 합성어</t>
         </is>
@@ -1200,13 +1200,13 @@
         <is>
           <t>검붉다
 1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 합성어</t>
+2. 파생어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2, 합성어, 비통사적 합성어</t>
+          <t>3, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>덮밥
-1. 파생어
-2. 합성어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3, 합성어, 비통사적 합성어</t>
+          <t>1, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1229,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>부슬비
-1. 파생어
-2. 합성어, 통사적 합성어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3, 합성어, 비통사적 합성어</t>
+          <t>1, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1244,14 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>높푸르다
-1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
+1. 파생어
+2. 합성어, 비통사적 합성어
 3. 합성어</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1, 합성어, 비통사적 합성어</t>
+          <t>2, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>스며들다
-1. 합성어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 파생어
+3. 합성어</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3, 합성어, 통사적 합성어</t>
+          <t>1, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1275,8 +1275,8 @@
         <is>
           <t>새빨갛다
 1. 파생어
-2. 합성어, 통사적 합성어
-3. 합성어</t>
+2. 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>짙푸르다
-1. 합성어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2, 합성어, 비통사적 합성어</t>
+          <t>3, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
           <t>젊은이
 1. 합성어, 통사적 합성어
 2. 합성어, 비통사적 합성어
-3. 합성어</t>
+3. 파생어</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>가로막다
-1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어</t>
+1. 파생어
+2. 합성어, 비통사적 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1, 합성어, 통사적 합성어</t>
+          <t>3, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1335,8 +1335,8 @@
         <is>
           <t>새해
 1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어</t>
+2. 합성어, 비통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1350,8 +1350,8 @@
         <is>
           <t>힘들다
 1. 합성어, 통사적 합성어
-2. 합성어
-3. 파생어</t>
+2. 파생어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1364,14 +1364,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>접칼
-1. 합성어, 비통사적 합성어
-2. 파생어
-3. 합성어, 통사적 합성어</t>
+1. 합성어
+2. 합성어, 비통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1, 합성어, 비통사적 합성어</t>
+          <t>2, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1379,14 +1379,14 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>돌아오다
-1. 합성어
-2. 합성어, 비통사적 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 합성어, 비통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3, 합성어, 통사적 합성어</t>
+          <t>1, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>굳세다
-1. 합성어
+1. 파생어
 2. 합성어, 통사적 합성어
 3. 합성어, 비통사적 합성어</t>
         </is>
@@ -1409,14 +1409,14 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>밤낮
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1, 합성어, 통사적 합성어</t>
+          <t>3, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1425,8 +1425,8 @@
         <is>
           <t>굶주리다
 1. 합성어, 비통사적 합성어
-2. 합성어
-3. 합성어, 통사적 합성어</t>
+2. 파생어
+3. 합성어</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1439,8 +1439,8 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>빛나다
-1. 합성어, 비통사적 합성어
-2. 합성어
+1. 합성어
+2. 합성어, 비통사적 합성어
 3. 파생어</t>
         </is>
       </c>
@@ -1454,14 +1454,14 @@
       <c r="A69" t="inlineStr">
         <is>
           <t>맛나다
-1. 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 합성어, 통사적 합성어
+2. 파생어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       <c r="A70" t="inlineStr">
         <is>
           <t>별나다
-1. 합성어, 비통사적 합성어
+1. 합성어, 통사적 합성어
 2. 합성어
 3. 파생어</t>
         </is>
@@ -1484,14 +1484,14 @@
       <c r="A71" t="inlineStr">
         <is>
           <t>보살피다
-1. 합성어, 통사적 합성어
-2. 합성어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어
+2. 합성어, 비통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3, 합성어, 비통사적 합성어</t>
+          <t>2, 합성어, 비통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1499,14 +1499,14 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>잠보
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+1. 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -1514,14 +1514,14 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>점쟁이
-1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -1529,14 +1529,14 @@
       <c r="A74" t="inlineStr">
         <is>
           <t>일꾼
-1. 합성어
-2. 합성어, 통사적 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어, 비통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
         <is>
           <t>덮개
 1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
+2. 합성어
 3. 파생어</t>
         </is>
       </c>
@@ -1559,14 +1559,14 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>넓이
-1. 파생어
-2. 합성어, 비통사적 합성어
-3. 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -1574,14 +1574,14 @@
       <c r="A77" t="inlineStr">
         <is>
           <t>조용하
-1. 합성어, 비통사적 합성어
-2. 파생어
-3. 합성어, 통사적 합성어</t>
+1. 파생어
+2. 합성어, 비통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -1590,8 +1590,8 @@
         <is>
           <t>군것질
 1. 파생어
-2. 합성어
-3. 합성어, 통사적 합성어</t>
+2. 합성어, 비통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1605,8 +1605,8 @@
         <is>
           <t>선생님
 1. 파생어
-2. 합성어, 통사적 합성어
-3. 합성어</t>
+2. 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1619,8 +1619,8 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>먹히다
-1. 합성어, 통사적 합성어
-2. 합성어
+1. 합성어
+2. 합성어, 비통사적 합성어
 3. 파생어</t>
         </is>
       </c>
@@ -1649,14 +1649,14 @@
       <c r="A82" t="inlineStr">
         <is>
           <t>맨손
-1. 합성어, 비통사적 합성어
-2. 파생어
-3. 합성어</t>
+1. 파생어
+2. 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -1665,8 +1665,8 @@
         <is>
           <t>군소리
 1. 파생어
-2. 합성어, 통사적 합성어
-3. 합성어</t>
+2. 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1679,14 +1679,14 @@
       <c r="A84" t="inlineStr">
         <is>
           <t>시누이
-1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어</t>
+1. 파생어
+2. 합성어, 통사적 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -1694,8 +1694,8 @@
       <c r="A85" t="inlineStr">
         <is>
           <t>빗나가다
-1. 합성어, 비통사적 합성어
-2. 합성어
+1. 합성어, 통사적 합성어
+2. 합성어, 비통사적 합성어
 3. 파생어</t>
         </is>
       </c>
@@ -1710,8 +1710,8 @@
         <is>
           <t>새파랗다
 1. 파생어
-2. 합성어, 통사적 합성어
-3. 합성어</t>
+2. 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1724,14 +1724,14 @@
       <c r="A87" t="inlineStr">
         <is>
           <t>개살구
-1. 파생어
-2. 합성어, 비통사적 합성어
-3. 합성어</t>
+1. 합성어, 통사적 합성어
+2. 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -1739,14 +1739,14 @@
       <c r="A88" t="inlineStr">
         <is>
           <t>헛웃음
-1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
         <is>
           <t>낚시질
 1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
+2. 합성어
 3. 파생어</t>
         </is>
       </c>
@@ -1769,8 +1769,8 @@
       <c r="A90" t="inlineStr">
         <is>
           <t>지우개
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
+1. 합성어
+2. 합성어, 통사적 합성어
 3. 파생어</t>
         </is>
       </c>
@@ -1784,14 +1784,14 @@
       <c r="A91" t="inlineStr">
         <is>
           <t>건어물
-1. 파생어
-2. 합성어, 통사적 합성어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -1799,14 +1799,14 @@
       <c r="A92" t="inlineStr">
         <is>
           <t>손짓
-1. 합성어
-2. 합성어, 통사적 합성어
-3. 파생어</t>
+1. 합성어, 통사적 합성어
+2. 합성어, 비통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2, 합성어, 통사적 합성어</t>
+          <t>1, 합성어, 통사적 합성어</t>
         </is>
       </c>
     </row>
@@ -1815,13 +1815,13 @@
         <is>
           <t>비지땀
 1. 파생어
-2. 합성어
-3. 합성어, 통사적 합성어</t>
+2. 합성어, 통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2, 합성어</t>
+          <t>3, 합성어</t>
         </is>
       </c>
     </row>
@@ -1844,14 +1844,14 @@
       <c r="A95" t="inlineStr">
         <is>
           <t>쌍동밤
-1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
-3. 합성어</t>
+1. 합성어
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3, 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
     </row>
@@ -1859,14 +1859,14 @@
       <c r="A96" t="inlineStr">
         <is>
           <t>장작불
-1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어</t>
+1. 파생어
+2. 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3, 합성어</t>
+          <t>2, 합성어</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       <c r="A97" t="inlineStr">
         <is>
           <t>돌보다
-1. 합성어, 통사적 합성어
+1. 합성어, 비통사적 합성어
 2. 파생어
 3. 합성어</t>
         </is>
@@ -1889,14 +1889,14 @@
       <c r="A98" t="inlineStr">
         <is>
           <t>강추위
-1. 합성어, 비통사적 합성어
-2. 파생어
-3. 합성어, 통사적 합성어</t>
+1. 파생어
+2. 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -1904,14 +1904,14 @@
       <c r="A99" t="inlineStr">
         <is>
           <t>날강도
-1. 파생어
-2. 합성어, 통사적 합성어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 합성어, 비통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       <c r="A100" t="inlineStr">
         <is>
           <t>짓누르다
-1. 파생어
-2. 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 파생어
+3. 합성어</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -1935,13 +1935,13 @@
         <is>
           <t>온갓
 1. 합성어, 비통사적 합성어
-2. 파생어
-3. 합성어</t>
+2. 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3, 합성어</t>
+          <t>2, 합성어</t>
         </is>
       </c>
     </row>
@@ -1949,14 +1949,14 @@
       <c r="A102" t="inlineStr">
         <is>
           <t>게을러빠지다
-1. 합성어, 비통사적 합성어
-2. 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어, 비통사적 합성어
+3. 합성어</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2, 합성어</t>
+          <t>3, 합성어</t>
         </is>
       </c>
     </row>
@@ -1965,13 +1965,13 @@
         <is>
           <t>끝내
 1. 합성어, 비통사적 합성어
-2. 합성어
-3. 파생어</t>
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -1979,14 +1979,14 @@
       <c r="A104" t="inlineStr">
         <is>
           <t>참꽃
-1. 파생어
-2. 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 파생어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -1995,13 +1995,13 @@
         <is>
           <t>한겨울
 1. 합성어, 비통사적 합성어
-2. 파생어
-3. 합성어</t>
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -2009,14 +2009,14 @@
       <c r="A106" t="inlineStr">
         <is>
           <t>들개
-1. 합성어, 통사적 합성어
-2. 파생어
-3. 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -2025,13 +2025,13 @@
         <is>
           <t>움직이다
 1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
-3. 파생어</t>
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -2040,13 +2040,13 @@
         <is>
           <t>한낮
 1. 합성어
-2. 합성어, 비통사적 합성어
-3. 파생어</t>
+2. 파생어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
     </row>
@@ -2054,14 +2054,14 @@
       <c r="A109" t="inlineStr">
         <is>
           <t>어느덧
-1. 합성어, 통사적 합성어
-2. 합성어, 비통사적 합성어
-3. 합성어</t>
+1. 합성어, 비통사적 합성어
+2. 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3, 합성어</t>
+          <t>2, 합성어</t>
         </is>
       </c>
     </row>
@@ -2069,14 +2069,14 @@
       <c r="A110" t="inlineStr">
         <is>
           <t>들쑤시다
-1. 파생어
-2. 합성어, 통사적 합성어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어
+2. 합성어, 비통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1, 파생어</t>
+          <t>3, 파생어</t>
         </is>
       </c>
     </row>
@@ -2084,14 +2084,14 @@
       <c r="A111" t="inlineStr">
         <is>
           <t>마음껏
-1. 합성어, 비통사적 합성어
-2. 합성어, 통사적 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어, 비통사적 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -2099,14 +2099,14 @@
       <c r="A112" t="inlineStr">
         <is>
           <t>불호령
-1. 합성어, 비통사적 합성어
-2. 합성어
-3. 파생어</t>
+1. 파생어
+2. 합성어, 비통사적 합성어
+3. 합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -2114,14 +2114,14 @@
       <c r="A113" t="inlineStr">
         <is>
           <t>여남은
-1. 파생어
-2. 합성어
-3. 합성어, 비통사적 합성어</t>
+1. 합성어
+2. 합성어, 통사적 합성어
+3. 파생어</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2, 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
     </row>
@@ -2129,14 +2129,14 @@
       <c r="A114" t="inlineStr">
         <is>
           <t>마중
-1. 합성어, 통사적 합성어
-2. 파생어
+1. 파생어
+2. 합성어, 통사적 합성어
 3. 합성어</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2, 파생어</t>
+          <t>1, 파생어</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
           <t>인간
 1. 합성어, 통사적 합성어
 2. 합성어
-3. 파생어</t>
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2174,9 +2174,9 @@
       <c r="A117" t="inlineStr">
         <is>
           <t>까막까치
-1. 합성어, 비통사적 합성어
-2. 합성어
-3. 합성어, 통사적 합성어</t>
+1. 합성어, 통사적 합성어
+2. 합성어
+3. 합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
